--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.248266</v>
+        <v>1.789499</v>
       </c>
       <c r="H2">
-        <v>3.744798</v>
+        <v>5.368497</v>
       </c>
       <c r="I2">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="J2">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.041769666666667</v>
+        <v>0.571597</v>
       </c>
       <c r="N2">
-        <v>6.125309</v>
+        <v>1.714791</v>
       </c>
       <c r="O2">
-        <v>0.02341906427171577</v>
+        <v>0.00666866079389509</v>
       </c>
       <c r="P2">
-        <v>0.02341906427171577</v>
+        <v>0.00666866079389509</v>
       </c>
       <c r="Q2">
-        <v>2.548671654731333</v>
+        <v>1.022872259903</v>
       </c>
       <c r="R2">
-        <v>22.938044892582</v>
+        <v>9.205850339126998</v>
       </c>
       <c r="S2">
-        <v>0.0002040749868714771</v>
+        <v>8.299374811730295E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002040749868714771</v>
+        <v>8.299374811730295E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.248266</v>
+        <v>1.789499</v>
       </c>
       <c r="H3">
-        <v>3.744798</v>
+        <v>5.368497</v>
       </c>
       <c r="I3">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="J3">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>254.491844</v>
       </c>
       <c r="O3">
-        <v>0.9730057457123328</v>
+        <v>0.9896948272115175</v>
       </c>
       <c r="P3">
-        <v>0.973005745712333</v>
+        <v>0.9896948272115175</v>
       </c>
       <c r="Q3">
-        <v>105.8911720475013</v>
+        <v>151.8043001153853</v>
       </c>
       <c r="R3">
-        <v>953.0205484275119</v>
+        <v>1366.238701038468</v>
       </c>
       <c r="S3">
-        <v>0.00847882445166407</v>
+        <v>0.01231708820424411</v>
       </c>
       <c r="T3">
-        <v>0.008478824451664072</v>
+        <v>0.01231708820424411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.248266</v>
+        <v>1.789499</v>
       </c>
       <c r="H4">
-        <v>3.744798</v>
+        <v>5.368497</v>
       </c>
       <c r="I4">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="J4">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,25 +679,25 @@
         <v>0.3116996666666667</v>
       </c>
       <c r="N4">
-        <v>0.935099</v>
+        <v>0.9350989999999999</v>
       </c>
       <c r="O4">
-        <v>0.003575190015951382</v>
+        <v>0.00363651199458739</v>
       </c>
       <c r="P4">
-        <v>0.003575190015951383</v>
+        <v>0.00363651199458739</v>
       </c>
       <c r="Q4">
-        <v>0.3890840961113333</v>
+        <v>0.5577862418003333</v>
       </c>
       <c r="R4">
-        <v>3.501756865002</v>
+        <v>5.020076176202999</v>
       </c>
       <c r="S4">
-        <v>3.115439827583087E-05</v>
+        <v>4.525762665580929E-05</v>
       </c>
       <c r="T4">
-        <v>3.115439827583088E-05</v>
+        <v>4.525762665580929E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>103.907654</v>
       </c>
       <c r="H5">
-        <v>311.7229619999999</v>
+        <v>311.722962</v>
       </c>
       <c r="I5">
-        <v>0.7253717484997342</v>
+        <v>0.7226413867171911</v>
       </c>
       <c r="J5">
-        <v>0.7253717484997341</v>
+        <v>0.7226413867171912</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.041769666666667</v>
+        <v>0.571597</v>
       </c>
       <c r="N5">
-        <v>6.125309</v>
+        <v>1.714791</v>
       </c>
       <c r="O5">
-        <v>0.02341906427171577</v>
+        <v>0.00666866079389509</v>
       </c>
       <c r="P5">
-        <v>0.02341906427171577</v>
+        <v>0.00666866079389509</v>
       </c>
       <c r="Q5">
-        <v>212.1554960716953</v>
+        <v>59.393303303438</v>
       </c>
       <c r="R5">
-        <v>1909.399464645257</v>
+        <v>534.539729730942</v>
       </c>
       <c r="S5">
-        <v>0.01698752759900212</v>
+        <v>0.004819050283646912</v>
       </c>
       <c r="T5">
-        <v>0.01698752759900212</v>
+        <v>0.004819050283646913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>103.907654</v>
       </c>
       <c r="H6">
-        <v>311.7229619999999</v>
+        <v>311.722962</v>
       </c>
       <c r="I6">
-        <v>0.7253717484997342</v>
+        <v>0.7226413867171911</v>
       </c>
       <c r="J6">
-        <v>0.7253717484997341</v>
+        <v>0.7226413867171912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>254.491844</v>
       </c>
       <c r="O6">
-        <v>0.9730057457123328</v>
+        <v>0.9896948272115175</v>
       </c>
       <c r="P6">
-        <v>0.973005745712333</v>
+        <v>0.9896948272115175</v>
       </c>
       <c r="Q6">
-        <v>8814.550157391323</v>
+        <v>8814.550157391324</v>
       </c>
       <c r="R6">
-        <v>79330.95141652192</v>
+        <v>79330.95141652193</v>
       </c>
       <c r="S6">
-        <v>0.7057908790676426</v>
+        <v>0.7151944423629618</v>
       </c>
       <c r="T6">
-        <v>0.7057908790676426</v>
+        <v>0.7151944423629619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>103.907654</v>
       </c>
       <c r="H7">
-        <v>311.7229619999999</v>
+        <v>311.722962</v>
       </c>
       <c r="I7">
-        <v>0.7253717484997342</v>
+        <v>0.7226413867171911</v>
       </c>
       <c r="J7">
-        <v>0.7253717484997341</v>
+        <v>0.7226413867171912</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,25 +865,25 @@
         <v>0.3116996666666667</v>
       </c>
       <c r="N7">
-        <v>0.935099</v>
+        <v>0.9350989999999999</v>
       </c>
       <c r="O7">
-        <v>0.003575190015951382</v>
+        <v>0.00363651199458739</v>
       </c>
       <c r="P7">
-        <v>0.003575190015951383</v>
+        <v>0.00363651199458739</v>
       </c>
       <c r="Q7">
-        <v>32.38798111591532</v>
+        <v>32.38798111591533</v>
       </c>
       <c r="R7">
         <v>291.4918300432379</v>
       </c>
       <c r="S7">
-        <v>0.002593341833089447</v>
+        <v>0.00262789407058233</v>
       </c>
       <c r="T7">
-        <v>0.002593341833089447</v>
+        <v>0.00262789407058233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>114.274593</v>
       </c>
       <c r="I8">
-        <v>0.2659141976634545</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="J8">
-        <v>0.2659141976634544</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.041769666666667</v>
+        <v>0.571597</v>
       </c>
       <c r="N8">
-        <v>6.125309</v>
+        <v>1.714791</v>
       </c>
       <c r="O8">
-        <v>0.02341906427171577</v>
+        <v>0.00666866079389509</v>
       </c>
       <c r="P8">
-        <v>0.02341906427171577</v>
+        <v>0.00666866079389509</v>
       </c>
       <c r="Q8">
-        <v>77.774132552693</v>
+        <v>21.773004845007</v>
       </c>
       <c r="R8">
-        <v>699.967192974237</v>
+        <v>195.957043605063</v>
       </c>
       <c r="S8">
-        <v>0.006227461685842172</v>
+        <v>0.001766616762130874</v>
       </c>
       <c r="T8">
-        <v>0.006227461685842171</v>
+        <v>0.001766616762130874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>114.274593</v>
       </c>
       <c r="I9">
-        <v>0.2659141976634545</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="J9">
-        <v>0.2659141976634544</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>254.491844</v>
       </c>
       <c r="O9">
-        <v>0.9730057457123328</v>
+        <v>0.9896948272115175</v>
       </c>
       <c r="P9">
-        <v>0.973005745712333</v>
+        <v>0.9896948272115175</v>
       </c>
       <c r="Q9">
         <v>3231.327988324388</v>
@@ -1004,10 +1004,10 @@
         <v>29081.95189491949</v>
       </c>
       <c r="S9">
-        <v>0.2587360421930262</v>
+        <v>0.2621832966443114</v>
       </c>
       <c r="T9">
-        <v>0.2587360421930262</v>
+        <v>0.2621832966443114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>114.274593</v>
       </c>
       <c r="I10">
-        <v>0.2659141976634545</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="J10">
-        <v>0.2659141976634544</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,13 +1051,13 @@
         <v>0.3116996666666667</v>
       </c>
       <c r="N10">
-        <v>0.935099</v>
+        <v>0.9350989999999999</v>
       </c>
       <c r="O10">
-        <v>0.003575190015951382</v>
+        <v>0.00363651199458739</v>
       </c>
       <c r="P10">
-        <v>0.003575190015951383</v>
+        <v>0.00363651199458739</v>
       </c>
       <c r="Q10">
         <v>11.873117515523</v>
@@ -1066,10 +1066,10 @@
         <v>106.858057639707</v>
       </c>
       <c r="S10">
-        <v>0.0009506937845861048</v>
+        <v>0.0009633602973492503</v>
       </c>
       <c r="T10">
-        <v>0.0009506937845861049</v>
+        <v>0.0009633602973492503</v>
       </c>
     </row>
   </sheetData>
